--- a/SupTech/Logs/Expense Sheet Suptech.xlsx
+++ b/SupTech/Logs/Expense Sheet Suptech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsal\OneDrive\Desktop\TechWiz-IoT-2K23-B-main\SupTech\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D362A8-2C03-4417-8E5B-C0A59A4AD109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ED4A78-FEDF-4201-8EEB-3903B1E8C631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D07FA7E-AA25-4F52-8BD3-74FFB8589F97}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Item</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Pipes and Fittings</t>
+  </si>
+  <si>
+    <t>Pi Camera Module</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -454,136 +457,145 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -900,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8048F-48C1-4FDE-BDFC-CCC4E181859D}">
-  <dimension ref="D1:P38"/>
+  <dimension ref="D1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+      <selection activeCell="M28" sqref="M28:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,815 +925,799 @@
   <sheetData>
     <row r="1" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="10" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="10" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="12"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="42"/>
     </row>
     <row r="7" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="45"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
       <c r="K8" s="20">
         <v>1</v>
       </c>
       <c r="L8" s="20"/>
-      <c r="M8" s="7">
+      <c r="M8" s="38">
         <v>230</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7">
+      <c r="N8" s="38"/>
+      <c r="O8" s="38">
         <f>SUM(K8*M8)</f>
         <v>230</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="P8" s="38"/>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="19">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="21">
         <v>2</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="4">
+      <c r="L9" s="21"/>
+      <c r="M9" s="22">
         <v>850</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4">
+      <c r="N9" s="22"/>
+      <c r="O9" s="22">
         <f>SUM(K9*M9)</f>
         <v>1700</v>
       </c>
-      <c r="P9" s="4"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="19">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="21">
         <v>1</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="4">
+      <c r="L10" s="21"/>
+      <c r="M10" s="22">
         <v>150</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4">
+      <c r="N10" s="22"/>
+      <c r="O10" s="22">
         <f t="shared" ref="O10:O23" si="0">SUM(K10*M10)</f>
         <v>150</v>
       </c>
-      <c r="P10" s="4"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="19">
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="21">
         <v>2</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="4">
+      <c r="L11" s="21"/>
+      <c r="M11" s="22">
         <v>150</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4">
+      <c r="N11" s="22"/>
+      <c r="O11" s="22">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="22"/>
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="19">
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="21">
         <v>1</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="4">
+      <c r="L12" s="21"/>
+      <c r="M12" s="22">
         <v>450</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4">
+      <c r="N12" s="22"/>
+      <c r="O12" s="22">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="P12" s="4"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D13" s="1">
         <v>6</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="19">
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="21">
         <v>1</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="4">
+      <c r="L13" s="21"/>
+      <c r="M13" s="22">
         <v>230</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4">
+      <c r="N13" s="22"/>
+      <c r="O13" s="22">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="P13" s="4"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>7</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="19">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="21">
         <v>3</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="4">
+      <c r="L14" s="21"/>
+      <c r="M14" s="22">
         <v>170</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4">
+      <c r="N14" s="22"/>
+      <c r="O14" s="22">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="P14" s="4"/>
+      <c r="P14" s="22"/>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>8</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="19">
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="21">
         <v>1</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="4">
+      <c r="L15" s="21"/>
+      <c r="M15" s="22">
         <v>200</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4">
+      <c r="N15" s="22"/>
+      <c r="O15" s="22">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="P15" s="4"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>9</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="19">
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="21">
         <v>1</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="4">
+      <c r="L16" s="21"/>
+      <c r="M16" s="22">
         <v>90</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4">
+      <c r="N16" s="22"/>
+      <c r="O16" s="22">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="P16" s="4"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" s="1">
         <v>10</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="19">
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="21">
         <v>1</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="4">
+      <c r="L17" s="21"/>
+      <c r="M17" s="22">
         <v>50</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4">
+      <c r="N17" s="22"/>
+      <c r="O17" s="22">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="P17" s="4"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>11</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="19">
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="21">
         <v>1</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="4">
+      <c r="L18" s="21"/>
+      <c r="M18" s="22">
         <v>100</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4">
+      <c r="N18" s="22"/>
+      <c r="O18" s="22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="P18" s="4"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>12</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="19">
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="21">
         <v>1</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="4">
+      <c r="L19" s="21"/>
+      <c r="M19" s="22">
         <v>500</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4">
+      <c r="N19" s="22"/>
+      <c r="O19" s="22">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="P19" s="4"/>
+      <c r="P19" s="22"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>13</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="19">
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="21">
         <v>1</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="4">
+      <c r="L20" s="21"/>
+      <c r="M20" s="22">
         <v>25</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4">
+      <c r="N20" s="22"/>
+      <c r="O20" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P20" s="4"/>
+      <c r="P20" s="22"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>14</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="19">
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="21">
         <v>5</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="4">
+      <c r="L21" s="21"/>
+      <c r="M21" s="22">
         <v>270</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4">
+      <c r="N21" s="22"/>
+      <c r="O21" s="22">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="P21" s="4"/>
+      <c r="P21" s="22"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
         <v>15</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="8">
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="37">
         <v>1</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="9">
+      <c r="L22" s="37"/>
+      <c r="M22" s="47">
         <v>4000</v>
       </c>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9">
+      <c r="N22" s="47"/>
+      <c r="O22" s="47">
         <f t="shared" ref="O22" si="1">SUM(K22*M22)</f>
         <v>4000</v>
       </c>
-      <c r="P22" s="9"/>
+      <c r="P22" s="47"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>15</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="19">
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="21">
         <v>1</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="4">
-        <f>SUM(4860+260+700)</f>
-        <v>5820</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4">
+      <c r="L23" s="21"/>
+      <c r="M23" s="22">
+        <f>SUM(4860+260+700+2490+290)</f>
+        <v>8600</v>
+      </c>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22">
         <f t="shared" si="0"/>
-        <v>5820</v>
-      </c>
-      <c r="P23" s="4"/>
+        <v>8600</v>
+      </c>
+      <c r="P23" s="22"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="K24" s="37" t="s">
+      <c r="D24" s="1">
+        <v>16</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="21">
+        <v>1</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22">
+        <v>1100</v>
+      </c>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22">
+        <f t="shared" ref="O24" si="2">SUM(K24*M24)</f>
+        <v>1100</v>
+      </c>
+      <c r="P24" s="22"/>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="K26" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39">
-        <f>SUM(O8:P23)</f>
-        <v>15705</v>
-      </c>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="41"/>
-    </row>
-    <row r="25" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K25" s="33"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="44"/>
-    </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="K26" s="31" t="s">
+      <c r="L26" s="24"/>
+      <c r="M26" s="25">
+        <f>SUM(O8:P24)</f>
+        <v>19585</v>
+      </c>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="27"/>
+    </row>
+    <row r="27" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="K28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="32"/>
-      <c r="M26" s="45">
-        <f>SUM(M24/5+52.5)</f>
-        <v>3193.5</v>
-      </c>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="47"/>
-    </row>
-    <row r="27" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K27" s="33"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="44"/>
-    </row>
-    <row r="29" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="21" t="s">
+      <c r="L28" s="13"/>
+      <c r="M28" s="31">
+        <f>SUM(M26/5+52.5)</f>
+        <v>3969.5</v>
+      </c>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="33"/>
+    </row>
+    <row r="29" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K29" s="14"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="30"/>
+    </row>
+    <row r="31" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="E32" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23" t="s">
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23" t="s">
+      <c r="K32" s="16"/>
+      <c r="L32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23" t="s">
+      <c r="M32" s="16"/>
+      <c r="N32" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="35"/>
-    </row>
-    <row r="31" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E31" s="22"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="36"/>
-    </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="2">
+      <c r="O32" s="17"/>
+    </row>
+    <row r="33" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="36"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="19"/>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F34" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20">
-        <f>SUM(M24/5+52.5)</f>
-        <v>3193.5</v>
-      </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20">
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20">
+        <f>SUM(M26/5+52.5)</f>
+        <v>3969.5</v>
+      </c>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20">
         <v>1700</v>
       </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20">
-        <f>SUM(J32-L32)</f>
-        <v>1493.5</v>
-      </c>
-      <c r="O32" s="20"/>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E33" s="1">
-        <v>2</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19">
-        <f>SUM(M24/5+52.5)</f>
-        <v>3193.5</v>
-      </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19">
-        <v>1700</v>
-      </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19">
-        <f t="shared" ref="N33:N37" si="2">SUM(J33-L33)</f>
-        <v>1493.5</v>
-      </c>
-      <c r="O33" s="19"/>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E34" s="1">
-        <v>3</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20">
-        <f>SUM(M24/5+52.5)</f>
-        <v>3193.5</v>
-      </c>
-      <c r="K34" s="20"/>
-      <c r="L34" s="19">
-        <v>1700</v>
-      </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19">
-        <f t="shared" si="2"/>
-        <v>1493.5</v>
-      </c>
-      <c r="O34" s="19"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20">
+        <f>SUM(J34-L34)</f>
+        <v>2269.5</v>
+      </c>
+      <c r="O34" s="20"/>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E35" s="1">
-        <v>4</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19">
-        <f>SUM(M24/5+52.5)</f>
-        <v>3193.5</v>
-      </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19">
+        <v>2</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21">
+        <f>SUM(M26/5+52.5)</f>
+        <v>3969.5</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21">
         <v>1700</v>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19">
-        <f t="shared" si="2"/>
-        <v>1493.5</v>
-      </c>
-      <c r="O35" s="19"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21">
+        <f t="shared" ref="N35:N39" si="3">SUM(J35-L35)</f>
+        <v>2269.5</v>
+      </c>
+      <c r="O35" s="21"/>
     </row>
     <row r="36" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="20">
+        <f>SUM(M26/5+52.5)</f>
+        <v>3969.5</v>
+      </c>
+      <c r="K36" s="20"/>
+      <c r="L36" s="21">
+        <v>1700</v>
+      </c>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21">
+        <f t="shared" si="3"/>
+        <v>2269.5</v>
+      </c>
+      <c r="O36" s="21"/>
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21">
+        <f>SUM(M26/5+52.5)</f>
+        <v>3969.5</v>
+      </c>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21">
+        <v>1700</v>
+      </c>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21">
+        <f t="shared" si="3"/>
+        <v>2269.5</v>
+      </c>
+      <c r="O37" s="21"/>
+    </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E38" s="1">
         <v>5</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F38" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20">
-        <f>SUM(M24/5+52.5)</f>
-        <v>3193.5</v>
-      </c>
-      <c r="K36" s="20"/>
-      <c r="L36" s="19">
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="20">
+        <f>SUM(M26/5+52.5)</f>
+        <v>3969.5</v>
+      </c>
+      <c r="K38" s="20"/>
+      <c r="L38" s="21">
+        <v>2000</v>
+      </c>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21">
+        <f t="shared" si="3"/>
+        <v>1969.5</v>
+      </c>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="1">
+        <v>6</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="37">
+        <f>SUM(M26/5+52.5)</f>
+        <v>3969.5</v>
+      </c>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37">
         <v>1700</v>
       </c>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19">
-        <f t="shared" si="2"/>
-        <v>1493.5</v>
-      </c>
-      <c r="O36" s="19"/>
-    </row>
-    <row r="37" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E37" s="1">
-        <v>6</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="8">
-        <f>SUM(M24/5+52.5)</f>
-        <v>3193.5</v>
-      </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8">
-        <v>1700</v>
-      </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8">
-        <f t="shared" si="2"/>
-        <v>1493.5</v>
-      </c>
-      <c r="O37" s="8"/>
-    </row>
-    <row r="38" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J38" s="10">
-        <f>SUM(J37,J36,J35,J34,J33)</f>
-        <v>15967.5</v>
-      </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="10">
-        <f>SUM(L37,L36,L35,L34,L33)</f>
-        <v>8500</v>
-      </c>
-      <c r="M38" s="12"/>
-      <c r="N38" s="10">
-        <f>SUM(N33:O37)</f>
-        <v>7467.5</v>
-      </c>
-      <c r="O38" s="12"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37">
+        <f t="shared" si="3"/>
+        <v>2269.5</v>
+      </c>
+      <c r="O39" s="37"/>
+    </row>
+    <row r="40" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J40" s="4">
+        <f>SUM(J39,J38,J37,J36,J35)</f>
+        <v>19847.5</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="4">
+        <f>SUM(L39,L38,L37,L36,L35)</f>
+        <v>8800</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="4">
+        <f>SUM(N35:O39)</f>
+        <v>11047.5</v>
+      </c>
+      <c r="O40" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H2:L3"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="N30:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="M24:P25"/>
-    <mergeCell ref="M26:P27"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="L30:M31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="F30:I31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="K8:L8"/>
+  <mergeCells count="110">
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="E21:J21"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
@@ -1745,18 +1741,79 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="E15:J15"/>
     <mergeCell ref="E16:J16"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="J32:K33"/>
+    <mergeCell ref="L32:M33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="F32:I33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="H2:L3"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="N32:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="M26:P27"/>
+    <mergeCell ref="M28:P29"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SupTech/Logs/Expense Sheet Suptech.xlsx
+++ b/SupTech/Logs/Expense Sheet Suptech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsal\OneDrive\Desktop\TechWiz-IoT-2K23-B-main\SupTech\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ED4A78-FEDF-4201-8EEB-3903B1E8C631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFAD4D2-8475-40F4-8D2E-14C219B781DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D07FA7E-AA25-4F52-8BD3-74FFB8589F97}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Item</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Pi Camera Module</t>
+  </si>
+  <si>
+    <t>Extra fitting</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -444,11 +447,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,56 +497,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -514,6 +506,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,56 +629,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8048F-48C1-4FDE-BDFC-CCC4E181859D}">
   <dimension ref="D1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28:P29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,615 +977,626 @@
   <sheetData>
     <row r="1" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="4" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="13"/>
+      <c r="O5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="5"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="45"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="19"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="20">
         <v>1</v>
       </c>
       <c r="L8" s="20"/>
-      <c r="M8" s="38">
+      <c r="M8" s="8">
         <v>230</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38">
+      <c r="N8" s="8"/>
+      <c r="O8" s="8">
         <f>SUM(K8*M8)</f>
         <v>230</v>
       </c>
-      <c r="P8" s="38"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="21">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5">
         <v>2</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22">
+      <c r="L9" s="5"/>
+      <c r="M9" s="6">
         <v>850</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
         <f>SUM(K9*M9)</f>
         <v>1700</v>
       </c>
-      <c r="P9" s="22"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="21">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="22">
+      <c r="L10" s="5"/>
+      <c r="M10" s="6">
         <v>150</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
         <f t="shared" ref="O10:O23" si="0">SUM(K10*M10)</f>
         <v>150</v>
       </c>
-      <c r="P10" s="22"/>
+      <c r="P10" s="6"/>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="21">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5">
         <v>2</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="22">
+      <c r="L11" s="5"/>
+      <c r="M11" s="6">
         <v>150</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="P11" s="22"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="21">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5">
         <v>1</v>
       </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22">
+      <c r="L12" s="5"/>
+      <c r="M12" s="6">
         <v>450</v>
       </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="P12" s="22"/>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D13" s="1">
         <v>6</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="21">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5">
         <v>1</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22">
+      <c r="L13" s="5"/>
+      <c r="M13" s="6">
         <v>230</v>
       </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="P13" s="22"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>7</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="21">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5">
         <v>3</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22">
+      <c r="L14" s="5"/>
+      <c r="M14" s="6">
         <v>170</v>
       </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="P14" s="22"/>
+      <c r="P14" s="6"/>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>8</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="21">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5">
         <v>1</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22">
+      <c r="L15" s="5"/>
+      <c r="M15" s="6">
         <v>200</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="P15" s="22"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>9</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="21">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5">
         <v>1</v>
       </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="22">
+      <c r="L16" s="5"/>
+      <c r="M16" s="6">
         <v>90</v>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="P16" s="22"/>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" s="1">
         <v>10</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="21">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5">
         <v>1</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22">
+      <c r="L17" s="5"/>
+      <c r="M17" s="6">
         <v>50</v>
       </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="P17" s="22"/>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>11</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="21">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5">
         <v>1</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22">
+      <c r="L18" s="5"/>
+      <c r="M18" s="6">
         <v>100</v>
       </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22">
+      <c r="N18" s="6"/>
+      <c r="O18" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="P18" s="22"/>
+      <c r="P18" s="6"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>12</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="21">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5">
         <v>1</v>
       </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="22">
+      <c r="L19" s="5"/>
+      <c r="M19" s="6">
         <v>500</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22">
+      <c r="N19" s="6"/>
+      <c r="O19" s="6">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="P19" s="22"/>
+      <c r="P19" s="6"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>13</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="21">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5">
         <v>1</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22">
+      <c r="L20" s="5"/>
+      <c r="M20" s="6">
         <v>25</v>
       </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22">
+      <c r="N20" s="6"/>
+      <c r="O20" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P20" s="22"/>
+      <c r="P20" s="6"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>14</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="21">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5">
         <v>5</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="22">
+      <c r="L21" s="5"/>
+      <c r="M21" s="6">
         <v>270</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22">
+      <c r="N21" s="6"/>
+      <c r="O21" s="6">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="P21" s="22"/>
+      <c r="P21" s="6"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
         <v>15</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="37">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="9">
         <v>1</v>
       </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="47">
+      <c r="L22" s="9"/>
+      <c r="M22" s="10">
         <v>4000</v>
       </c>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47">
+      <c r="N22" s="10"/>
+      <c r="O22" s="10">
         <f t="shared" ref="O22" si="1">SUM(K22*M22)</f>
         <v>4000</v>
       </c>
-      <c r="P22" s="47"/>
+      <c r="P22" s="10"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>15</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="21">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5">
         <v>1</v>
       </c>
-      <c r="L23" s="21"/>
-      <c r="M23" s="22">
+      <c r="L23" s="5"/>
+      <c r="M23" s="6">
         <f>SUM(4860+260+700+2490+290)</f>
         <v>8600</v>
       </c>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22">
+      <c r="N23" s="6"/>
+      <c r="O23" s="6">
         <f t="shared" si="0"/>
         <v>8600</v>
       </c>
-      <c r="P23" s="22"/>
+      <c r="P23" s="6"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
         <v>16</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="21">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5">
         <v>1</v>
       </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22">
+      <c r="L24" s="5"/>
+      <c r="M24" s="6">
         <v>1100</v>
       </c>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22">
+      <c r="N24" s="6"/>
+      <c r="O24" s="6">
         <f t="shared" ref="O24" si="2">SUM(K24*M24)</f>
         <v>1100</v>
       </c>
-      <c r="P24" s="22"/>
+      <c r="P24" s="6"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
+      <c r="D25" s="1">
+        <v>17</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="48">
+        <v>1</v>
+      </c>
+      <c r="L25" s="49"/>
+      <c r="M25" s="50">
+        <v>890</v>
+      </c>
+      <c r="N25" s="51"/>
+      <c r="O25" s="50">
+        <f t="shared" ref="O25" si="3">SUM(K25*M25)</f>
+        <v>890</v>
+      </c>
+      <c r="P25" s="51"/>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25">
-        <f>SUM(O8:P24)</f>
-        <v>19585</v>
-      </c>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="27"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="39">
+        <f>SUM(O8:P25)</f>
+        <v>20475</v>
+      </c>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="41"/>
     </row>
     <row r="27" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K27" s="14"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="44"/>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="31">
+      <c r="L28" s="32"/>
+      <c r="M28" s="45">
         <f>SUM(M26/5+52.5)</f>
-        <v>3969.5</v>
-      </c>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="33"/>
+        <v>4147.5</v>
+      </c>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="47"/>
     </row>
     <row r="29" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K29" s="14"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="30"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="44"/>
     </row>
     <row r="31" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16" t="s">
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16" t="s">
+      <c r="K32" s="23"/>
+      <c r="L32" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16" t="s">
+      <c r="M32" s="23"/>
+      <c r="N32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O32" s="17"/>
+      <c r="O32" s="35"/>
     </row>
     <row r="33" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E33" s="36"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="19"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="36"/>
     </row>
     <row r="34" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E34" s="2">
@@ -1547,7 +1610,7 @@
       <c r="I34" s="20"/>
       <c r="J34" s="20">
         <f>SUM(M26/5+52.5)</f>
-        <v>3969.5</v>
+        <v>4147.5</v>
       </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20">
@@ -1556,7 +1619,7 @@
       <c r="M34" s="20"/>
       <c r="N34" s="20">
         <f>SUM(J34-L34)</f>
-        <v>2269.5</v>
+        <v>2447.5</v>
       </c>
       <c r="O34" s="20"/>
     </row>
@@ -1564,160 +1627,218 @@
       <c r="E35" s="1">
         <v>2</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5">
         <f>SUM(M26/5+52.5)</f>
-        <v>3969.5</v>
-      </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21">
+        <v>4147.5</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5">
         <v>1700</v>
       </c>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21">
-        <f t="shared" ref="N35:N39" si="3">SUM(J35-L35)</f>
-        <v>2269.5</v>
-      </c>
-      <c r="O35" s="21"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5">
+        <f t="shared" ref="N35:N39" si="4">SUM(J35-L35)</f>
+        <v>2447.5</v>
+      </c>
+      <c r="O35" s="5"/>
     </row>
     <row r="36" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E36" s="1">
         <v>3</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="20">
         <f>SUM(M26/5+52.5)</f>
-        <v>3969.5</v>
+        <v>4147.5</v>
       </c>
       <c r="K36" s="20"/>
-      <c r="L36" s="21">
+      <c r="L36" s="5">
         <v>1700</v>
       </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21">
-        <f t="shared" si="3"/>
-        <v>2269.5</v>
-      </c>
-      <c r="O36" s="21"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5">
+        <f t="shared" si="4"/>
+        <v>2447.5</v>
+      </c>
+      <c r="O36" s="5"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E37" s="1">
         <v>4</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5">
         <f>SUM(M26/5+52.5)</f>
-        <v>3969.5</v>
-      </c>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21">
+        <v>4147.5</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5">
         <v>1700</v>
       </c>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21">
-        <f t="shared" si="3"/>
-        <v>2269.5</v>
-      </c>
-      <c r="O37" s="21"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5">
+        <f t="shared" si="4"/>
+        <v>2447.5</v>
+      </c>
+      <c r="O37" s="5"/>
     </row>
     <row r="38" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E38" s="1">
         <v>5</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="20">
         <f>SUM(M26/5+52.5)</f>
-        <v>3969.5</v>
+        <v>4147.5</v>
       </c>
       <c r="K38" s="20"/>
-      <c r="L38" s="21">
+      <c r="L38" s="5">
         <v>2000</v>
       </c>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21">
-        <f t="shared" si="3"/>
-        <v>1969.5</v>
-      </c>
-      <c r="O38" s="21"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5">
+        <f t="shared" si="4"/>
+        <v>2147.5</v>
+      </c>
+      <c r="O38" s="5"/>
     </row>
     <row r="39" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E39" s="1">
         <v>6</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="37">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="9">
         <f>SUM(M26/5+52.5)</f>
-        <v>3969.5</v>
-      </c>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37">
+        <v>4147.5</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9">
         <v>1700</v>
       </c>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37">
-        <f t="shared" si="3"/>
-        <v>2269.5</v>
-      </c>
-      <c r="O39" s="37"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9">
+        <f t="shared" si="4"/>
+        <v>2447.5</v>
+      </c>
+      <c r="O39" s="9"/>
     </row>
     <row r="40" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J40" s="4">
+      <c r="J40" s="11">
         <f>SUM(J39,J38,J37,J36,J35)</f>
-        <v>19847.5</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="4">
+        <v>20737.5</v>
+      </c>
+      <c r="K40" s="13"/>
+      <c r="L40" s="11">
         <f>SUM(L39,L38,L37,L36,L35)</f>
         <v>8800</v>
       </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="4">
+      <c r="M40" s="13"/>
+      <c r="N40" s="11">
         <f>SUM(N35:O39)</f>
-        <v>11047.5</v>
-      </c>
-      <c r="O40" s="5"/>
+        <v>11937.5</v>
+      </c>
+      <c r="O40" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="E21:J21"/>
+  <mergeCells count="114">
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="H2:L3"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="N32:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="M26:P27"/>
+    <mergeCell ref="M28:P29"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="J32:K33"/>
+    <mergeCell ref="L32:M33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="F32:I33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
@@ -1742,77 +1863,23 @@
     <mergeCell ref="E15:J15"/>
     <mergeCell ref="E16:J16"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="E21:J21"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="E23:J23"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="J32:K33"/>
-    <mergeCell ref="L32:M33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="F32:I33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="H2:L3"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="N32:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="M26:P27"/>
-    <mergeCell ref="M28:P29"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
     <mergeCell ref="O11:P11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
